--- a/API_AUTO_test/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
+++ b/API_AUTO_test/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="809"/>
+    <workbookView xWindow="4960" yWindow="3360" windowWidth="25600" windowHeight="15600" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="479">
   <si>
     <t>case_id</t>
   </si>
@@ -2039,10 +2039,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"mobilephone":"15096099000","pwd":"123456789"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2410,10 +2406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"${normal_tel}","pwd":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"mobilephone":"${normal_tel}","amount":"1000"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2450,6 +2442,18 @@
   </si>
   <si>
     <t>{"mobilephone":"${NoRegTel}","pwd":"123456","regname":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_tel}","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3196,7 +3200,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -3216,7 +3220,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>88</v>
@@ -3236,7 +3240,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>86</v>
@@ -3256,7 +3260,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>87</v>
@@ -3276,7 +3280,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>89</v>
@@ -5112,26 +5116,26 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20" s="45" t="s">
         <v>428</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
         <v>430</v>
-      </c>
-      <c r="B21" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" t="s">
         <v>432</v>
-      </c>
-      <c r="B22" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5153,36 +5157,36 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>437</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="165">
       <c r="A25" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="E25" s="16" t="s">
         <v>442</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5230,40 +5234,40 @@
         <v>236</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="45" t="s">
         <v>458</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>459</v>
       </c>
       <c r="C32" s="45"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>448</v>
+      </c>
+      <c r="B34" t="s">
         <v>449</v>
-      </c>
-      <c r="B34" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>460</v>
+      </c>
+      <c r="B35" t="s">
         <v>461</v>
-      </c>
-      <c r="B35" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5317,18 +5321,18 @@
         <v>236</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D41" s="21"/>
     </row>
@@ -5340,26 +5344,26 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" t="s">
         <v>447</v>
-      </c>
-      <c r="B44" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>448</v>
+      </c>
+      <c r="B45" t="s">
         <v>449</v>
-      </c>
-      <c r="B45" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5381,19 +5385,19 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="C47" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="D47" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>437</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5448,30 +5452,30 @@
         <v>236</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D54" s="16"/>
     </row>
@@ -5876,7 +5880,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5940,7 +5944,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>478</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>85</v>
@@ -6003,7 +6007,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>76</v>
@@ -6155,8 +6159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6179,7 +6183,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -6205,10 +6209,10 @@
         <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>84</v>
@@ -6223,13 +6227,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -6250,7 +6254,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
@@ -6272,7 +6276,7 @@
         <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
@@ -6294,7 +6298,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
@@ -6471,7 +6475,7 @@
         <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>39</v>
@@ -6488,7 +6492,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>92</v>
@@ -7534,7 +7538,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/API_AUTO_test/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
+++ b/API_AUTO_test/interface_auto_practice_50/test_data/interface_auto_practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="3360" windowWidth="25600" windowHeight="15600" tabRatio="809"/>
+    <workbookView xWindow="2500" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="809" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="481">
   <si>
     <t>case_id</t>
   </si>
@@ -2454,6 +2454,14 @@
   </si>
   <si>
     <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.24.235.105:8090/jenkins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3155,7 +3163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -7537,8 +7545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7546,6 +7554,8 @@
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="56.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7553,10 +7563,18 @@
         <v>29</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="2">
+        <v>18688773507</v>
+      </c>
+      <c r="E1" s="2">
+        <v>123456</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
